--- a/periode 3/Rekenen & Office/Laurens Segaar Excel opdracht 6.xlsx
+++ b/periode 3/Rekenen & Office/Laurens Segaar Excel opdracht 6.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://aventus-my.sharepoint.com/personal/207018_student_aventus_nl/Documents/Aventus leerjaar 1/periode 3/Rekenen &amp; Office/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2B2FDFC9-580E-49F5-8E72-2246750D4D56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="8_{2B2FDFC9-580E-49F5-8E72-2246750D4D56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1FC65D58-3C88-42A5-9250-5CFF14F8A361}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Opslagmedia" sheetId="1" r:id="rId1"/>
@@ -458,7 +458,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
@@ -523,7 +523,6 @@
     <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -843,10 +842,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:K17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:F1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -858,17 +857,17 @@
     <col min="5" max="6" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A1" s="49" t="s">
+    <row r="1" spans="1:11" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="A1" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>45</v>
       </c>
@@ -880,7 +879,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -888,7 +887,7 @@
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>2</v>
       </c>
@@ -908,154 +907,190 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B6" s="6">
         <v>700</v>
       </c>
-      <c r="C6" s="2"/>
+      <c r="C6" s="2">
+        <f>B6/1000</f>
+        <v>0.7</v>
+      </c>
       <c r="D6" s="7">
         <v>0.25</v>
       </c>
       <c r="E6" s="8"/>
       <c r="F6" s="9"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="s">
         <v>8</v>
       </c>
       <c r="B7" s="6">
         <v>700</v>
       </c>
-      <c r="C7" s="2"/>
+      <c r="C7" s="2">
+        <f t="shared" ref="C7:C17" si="0">B7/1000</f>
+        <v>0.7</v>
+      </c>
       <c r="D7" s="7">
         <v>0.6</v>
       </c>
       <c r="E7" s="8"/>
       <c r="F7" s="9"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="10" t="s">
         <v>9</v>
       </c>
       <c r="B8" s="6">
         <v>4700</v>
       </c>
-      <c r="C8" s="2"/>
+      <c r="C8" s="2">
+        <f t="shared" si="0"/>
+        <v>4.7</v>
+      </c>
       <c r="D8" s="7">
         <v>0.95</v>
       </c>
       <c r="E8" s="8"/>
       <c r="F8" s="9"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="10" t="s">
         <v>10</v>
       </c>
       <c r="B9" s="6">
         <v>4700</v>
       </c>
-      <c r="C9" s="2"/>
+      <c r="C9" s="2">
+        <f t="shared" si="0"/>
+        <v>4.7</v>
+      </c>
       <c r="D9" s="7">
         <v>2.1</v>
       </c>
       <c r="E9" s="8"/>
       <c r="F9" s="9"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="K9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="10" t="s">
         <v>11</v>
       </c>
       <c r="B10" s="6">
         <v>9400</v>
       </c>
-      <c r="C10" s="2"/>
+      <c r="C10" s="2">
+        <f t="shared" si="0"/>
+        <v>9.4</v>
+      </c>
       <c r="D10" s="7">
         <v>3.8</v>
       </c>
       <c r="E10" s="8"/>
       <c r="F10" s="9"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="10" t="s">
         <v>12</v>
       </c>
       <c r="B11" s="6">
         <v>8000</v>
       </c>
-      <c r="C11" s="2"/>
+      <c r="C11" s="2">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
       <c r="D11" s="7">
         <v>10</v>
       </c>
       <c r="E11" s="8"/>
       <c r="F11" s="9"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="10" t="s">
         <v>12</v>
       </c>
       <c r="B12" s="6">
         <v>32000</v>
       </c>
-      <c r="C12" s="2"/>
+      <c r="C12" s="2">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
       <c r="D12" s="7">
         <v>25</v>
       </c>
       <c r="E12" s="8"/>
       <c r="F12" s="9"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="10" t="s">
         <v>13</v>
       </c>
       <c r="B13" s="6">
         <v>500000</v>
       </c>
-      <c r="C13" s="2"/>
+      <c r="C13" s="2">
+        <f t="shared" si="0"/>
+        <v>500</v>
+      </c>
       <c r="D13" s="7">
         <v>68</v>
       </c>
       <c r="E13" s="8"/>
       <c r="F13" s="9"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="10" t="s">
         <v>47</v>
       </c>
       <c r="B14" s="6">
         <v>1000000</v>
       </c>
-      <c r="C14" s="2"/>
+      <c r="C14" s="2">
+        <f t="shared" si="0"/>
+        <v>1000</v>
+      </c>
       <c r="D14" s="7">
         <v>89</v>
       </c>
       <c r="E14" s="8"/>
       <c r="F14" s="9"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="10" t="s">
         <v>48</v>
       </c>
       <c r="B15" s="42">
         <v>3000000</v>
       </c>
-      <c r="C15" s="2"/>
+      <c r="C15" s="2">
+        <f t="shared" si="0"/>
+        <v>3000</v>
+      </c>
       <c r="D15" s="43">
         <v>175</v>
       </c>
       <c r="E15" s="8"/>
       <c r="F15" s="9"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="10" t="s">
         <v>44</v>
       </c>
       <c r="B16" s="46">
         <v>128000</v>
       </c>
-      <c r="C16" s="2"/>
+      <c r="C16" s="2">
+        <f t="shared" si="0"/>
+        <v>128</v>
+      </c>
       <c r="D16" s="47">
         <v>133</v>
       </c>
@@ -1069,7 +1104,10 @@
       <c r="B17" s="44">
         <v>500000</v>
       </c>
-      <c r="C17" s="48"/>
+      <c r="C17" s="2">
+        <f t="shared" si="0"/>
+        <v>500</v>
+      </c>
       <c r="D17" s="45">
         <v>307</v>
       </c>
@@ -1100,12 +1138,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="48" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
@@ -1142,12 +1180,12 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="50" t="s">
+      <c r="A8" s="49" t="s">
         <v>43</v>
       </c>
-      <c r="B8" s="51"/>
-      <c r="C8" s="51"/>
-      <c r="D8" s="52"/>
+      <c r="B8" s="50"/>
+      <c r="C8" s="50"/>
+      <c r="D8" s="51"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="14" t="s">
@@ -1217,7 +1255,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
@@ -1230,13 +1268,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
     </row>
     <row r="3" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="17" t="s">
@@ -1451,15 +1489,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010045E7A1883E343B46917D91B4D8663C18" ma:contentTypeVersion="12" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="6cb78e67ec4e41d904cfd8415c14942d">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="d705e2f8-8232-4d63-ad7b-d5d515380e5c" xmlns:ns3="bdfbdd02-5de3-4c38-83d9-b604774493cc" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e16a03a92b61a380a4a1c667cbbe36a6" ns2:_="" ns3:_="">
     <xsd:import namespace="d705e2f8-8232-4d63-ad7b-d5d515380e5c"/>
@@ -1660,15 +1689,16 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4DFC79B8-F4B3-42A6-899A-A97E1A9472B9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F9C58D8F-3CE6-4B1E-822A-69D7471E35FC}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1685,4 +1715,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4DFC79B8-F4B3-42A6-899A-A97E1A9472B9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>